--- a/method_lib.xlsx
+++ b/method_lib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
